--- a/Gantt Proyecto Final.xlsx
+++ b/Gantt Proyecto Final.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C023C0-72A4-4BFF-BF66-2A0D980FF26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140489C8-CB71-4873-935F-F5970308F56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1510,6 +1510,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,9 +1541,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2237,8 +2237,8 @@
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>52</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:col>42</xdr:col>
+          <xdr:colOff>129989</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2799E96-9D19-40A4-A07A-C1C605C39FC0}">
   <dimension ref="A1:BQ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2643,9 @@
     <col min="6" max="7" width="12.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="56" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="56" width="5.7109375" customWidth="1"/>
     <col min="57" max="57" width="76.7109375" customWidth="1"/>
     <col min="58" max="66" width="5.7109375" customWidth="1"/>
   </cols>
@@ -2651,28 +2653,28 @@
     <row r="1" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
@@ -2755,10 +2757,10 @@
       <c r="AG3" s="26"/>
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
-      <c r="AJ3" s="99" t="s">
+      <c r="AJ3" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="AK3" s="99"/>
+      <c r="AK3" s="100"/>
       <c r="AL3" s="26"/>
       <c r="AM3" s="26"/>
       <c r="AN3" s="26"/>
@@ -2803,46 +2805,46 @@
         <v>10</v>
       </c>
       <c r="I4" s="23"/>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
       <c r="N4" s="26"/>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
       <c r="S4" s="26"/>
-      <c r="T4" s="108" t="s">
+      <c r="T4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
       <c r="X4" s="26"/>
-      <c r="Y4" s="100" t="s">
+      <c r="Y4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
       <c r="AC4" s="26"/>
-      <c r="AD4" s="101" t="s">
+      <c r="AD4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
       <c r="AH4" s="72">
         <v>1</v>
       </c>
       <c r="AI4" s="26"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
       <c r="AL4" s="26"/>
       <c r="AM4" s="26"/>
       <c r="AN4" s="26"/>
@@ -2950,7 +2952,7 @@
       </c>
       <c r="C6" s="28" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Hitos4352[Inicio])=0,TODAY(),B12(Hitos4352[Inicio])),TODAY())</f>
-        <v>45409</v>
+        <v>45411</v>
       </c>
       <c r="D6" s="83" t="s">
         <v>50</v>
@@ -3066,227 +3068,227 @@
       <c r="I7" s="23"/>
       <c r="J7" s="53">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
-        <v>45409</v>
+        <v>45411</v>
       </c>
       <c r="K7" s="54">
         <f ca="1">J7+1</f>
-        <v>45410</v>
+        <v>45412</v>
       </c>
       <c r="L7" s="54">
         <f t="shared" ref="L7:AY7" ca="1" si="0">K7+1</f>
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="M7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="N7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="O7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="P7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>45415</v>
+        <v>45417</v>
       </c>
       <c r="Q7" s="54">
         <f ca="1">P7+1</f>
-        <v>45416</v>
+        <v>45418</v>
       </c>
       <c r="R7" s="54">
         <f ca="1">Q7+1</f>
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="S7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="T7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="U7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="V7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45421</v>
+        <v>45423</v>
       </c>
       <c r="W7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="X7" s="54">
         <f ca="1">W7+1</f>
-        <v>45423</v>
+        <v>45425</v>
       </c>
       <c r="Y7" s="54">
         <f ca="1">X7+1</f>
-        <v>45424</v>
+        <v>45426</v>
       </c>
       <c r="Z7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="AA7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="AB7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45427</v>
+        <v>45429</v>
       </c>
       <c r="AC7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45428</v>
+        <v>45430</v>
       </c>
       <c r="AD7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>45429</v>
+        <v>45431</v>
       </c>
       <c r="AE7" s="54">
         <f ca="1">AD7+1</f>
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="AF7" s="54">
         <f ca="1">AE7+1</f>
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="AG7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45432</v>
+        <v>45434</v>
       </c>
       <c r="AH7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="AI7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="AJ7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45435</v>
+        <v>45437</v>
       </c>
       <c r="AK7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>45436</v>
+        <v>45438</v>
       </c>
       <c r="AL7" s="54">
         <f ca="1">AK7+1</f>
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="AM7" s="54">
         <f ca="1">AL7+1</f>
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="AN7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="AO7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="AP7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="AQ7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45442</v>
+        <v>45444</v>
       </c>
       <c r="AR7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>45443</v>
+        <v>45445</v>
       </c>
       <c r="AS7" s="54">
         <f ca="1">AR7+1</f>
-        <v>45444</v>
+        <v>45446</v>
       </c>
       <c r="AT7" s="54">
         <f ca="1">AS7+1</f>
-        <v>45445</v>
+        <v>45447</v>
       </c>
       <c r="AU7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="AV7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="AW7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="AX7" s="54">
         <f t="shared" ca="1" si="0"/>
-        <v>45449</v>
+        <v>45451</v>
       </c>
       <c r="AY7" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>45450</v>
+        <v>45452</v>
       </c>
       <c r="AZ7" s="54">
         <f ca="1">AY7+1</f>
-        <v>45451</v>
+        <v>45453</v>
       </c>
       <c r="BA7" s="54">
         <f ca="1">AZ7+1</f>
-        <v>45452</v>
+        <v>45454</v>
       </c>
       <c r="BB7" s="54">
         <f t="shared" ref="BB7:BF7" ca="1" si="1">BA7+1</f>
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="BC7" s="54">
         <f t="shared" ca="1" si="1"/>
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="BD7" s="54">
         <f t="shared" ca="1" si="1"/>
-        <v>45455</v>
+        <v>45457</v>
       </c>
       <c r="BE7" s="54">
         <f t="shared" ca="1" si="1"/>
-        <v>45456</v>
+        <v>45458</v>
       </c>
       <c r="BF7" s="55">
         <f t="shared" ca="1" si="1"/>
-        <v>45457</v>
+        <v>45459</v>
       </c>
       <c r="BG7" s="54">
         <f ca="1">BF7+1</f>
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="BH7" s="54">
         <f ca="1">BG7+1</f>
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="BI7" s="54">
         <f t="shared" ref="BI7:BM7" ca="1" si="2">BH7+1</f>
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="BJ7" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="BK7" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="BL7" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>45463</v>
+        <v>45465</v>
       </c>
       <c r="BM7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45464</v>
+        <v>45466</v>
       </c>
       <c r="BN7" s="26"/>
     </row>
@@ -3384,227 +3386,227 @@
       <c r="I9" s="39"/>
       <c r="J9" s="31" t="str">
         <f t="shared" ref="J9:BM9" ca="1" si="3">LEFT(TEXT(J7,"ddd"),1)</f>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="K9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="L9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="M9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="N9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="O9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="P9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="Q9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="R9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="S9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="T9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="U9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="V9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="W9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="X9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="Y9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="Z9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AA9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AB9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AC9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AD9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AE9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AF9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AG9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AH9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AI9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AJ9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AK9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AL9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AM9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AN9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AO9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AP9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AQ9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AR9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AS9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="AT9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AU9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="AV9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AW9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AX9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="AY9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="AZ9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BA9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BB9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="BC9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BD9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BE9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BF9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="BG9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="BH9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BI9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="BJ9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BK9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BL9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>s</v>
       </c>
       <c r="BM9" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="BN9" s="26"/>
     </row>
@@ -4001,7 +4003,7 @@
       </c>
       <c r="F13" s="18">
         <f ca="1">TODAY()</f>
-        <v>45409</v>
+        <v>45411</v>
       </c>
       <c r="G13" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -4253,7 +4255,7 @@
       </c>
       <c r="F14" s="18">
         <f ca="1">F13+H13</f>
-        <v>45414</v>
+        <v>45416</v>
       </c>
       <c r="G14" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -4501,11 +4503,11 @@
         <v>24</v>
       </c>
       <c r="E15" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18">
         <f ca="1">F14+H14</f>
-        <v>45417</v>
+        <v>45419</v>
       </c>
       <c r="G15" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -4757,7 +4759,7 @@
       </c>
       <c r="F16" s="18">
         <f t="shared" ref="F16:F37" ca="1" si="12">F15+H15</f>
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="G16" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -5009,7 +5011,7 @@
       </c>
       <c r="F17" s="18">
         <f t="shared" ca="1" si="12"/>
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="G17" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -5499,7 +5501,7 @@
       </c>
       <c r="F19" s="18">
         <f ca="1">F17+H17</f>
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="G19" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -5989,7 +5991,7 @@
       </c>
       <c r="F21" s="18">
         <f ca="1">F19+H19</f>
-        <v>45426</v>
+        <v>45428</v>
       </c>
       <c r="G21" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -6479,7 +6481,7 @@
       </c>
       <c r="F23" s="18">
         <f ca="1">F21+H21</f>
-        <v>45430</v>
+        <v>45432</v>
       </c>
       <c r="G23" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -6969,7 +6971,7 @@
       </c>
       <c r="F25" s="18">
         <f ca="1">F23+H23</f>
-        <v>45434</v>
+        <v>45436</v>
       </c>
       <c r="G25" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -7221,7 +7223,7 @@
       </c>
       <c r="F26" s="18">
         <f ca="1">F25+H25</f>
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="G26" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -7473,7 +7475,7 @@
       </c>
       <c r="F27" s="18">
         <f t="shared" ref="F27:F28" ca="1" si="19">F26+H26</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G27" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -7725,7 +7727,7 @@
       </c>
       <c r="F28" s="18">
         <f t="shared" ca="1" si="19"/>
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="G28" s="88">
         <f>Hitos4352[[#This Row],[Días]]*$E$7</f>
@@ -9191,7 +9193,7 @@
       <c r="E34" s="17">
         <v>0</v>
       </c>
-      <c r="F34" s="109">
+      <c r="F34" s="99">
         <f>F32+H32</f>
         <v>45413</v>
       </c>
@@ -9471,25 +9473,25 @@
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="N35" s="38" t="str">
+      <c r="N35" s="38">
         <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="O35" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="O35" s="38">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P35" s="38">
         <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="Q35" s="38" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="R35" s="38">
+        <v/>
+      </c>
+      <c r="R35" s="38" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="S35" s="38" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -14069,8 +14071,8 @@
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>52</xdr:col>
-                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:col>42</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </to>
@@ -14167,6 +14169,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14442,35 +14472,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14489,24 +14511,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>